--- a/biology/Botanique/Monodopsidaceae/Monodopsidaceae.xlsx
+++ b/biology/Botanique/Monodopsidaceae/Monodopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Monodopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Monodopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Monodopsis, dérivé du grec μονοσ, « seul, unique », et ὀδούς / odoys, dent  ― μονοδους / monodous, « qui n’a qu’une dent » —, le nom Monodus a d’ailleurs été longtemps utilisé ; la forme correcte du nouveau nom devrait être, Mondontopsis (de -opsis « semblable à »), le nom finalement adopté Monodopsis qui en représente une forme abrégée[2], signifie littéralement « comme n'ayant qu'une dent ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Monodopsis, dérivé du grec μονοσ, « seul, unique », et ὀδούς / odoys, dent  ― μονοδους / monodous, « qui n’a qu’une dent » —, le nom Monodus a d’ailleurs été longtemps utilisé ; la forme correcte du nouveau nom devrait être, Mondontopsis (de -opsis « semblable à »), le nom finalement adopté Monodopsis qui en représente une forme abrégée, signifie littéralement « comme n'ayant qu'une dent ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Monodopsidaceae sont des Eustigmatophycées unicellulaires flottantes à cellules sphériques, ovoïdes, elliptiques ou cylindriques de moins de 10 pm de diamètre[2]. Monodopsis  subterranea est une algue vivant dans le sol tandis que les espèces du genre Nannochloropsis sont euryhalines et vivent dans les bassins rocheux côtiers[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Monodopsidaceae sont des Eustigmatophycées unicellulaires flottantes à cellules sphériques, ovoïdes, elliptiques ou cylindriques de moins de 10 pm de diamètre. Monodopsis  subterranea est une algue vivant dans le sol tandis que les espèces du genre Nannochloropsis sont euryhalines et vivent dans les bassins rocheux côtiers.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (19 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (19 février 2022) :
 Microchloropsis M.W.Fawley, I.Jameson &amp; K.P.Fawley, 2015
 Monodopsis D.J.Hibberd, 1981
 Nannochloropsis D.J.Hibberd, 1981
